--- a/src/main/resources/temple/temple.xlsx
+++ b/src/main/resources/temple/temple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,20 +13,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,26 +978,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1027,7 +1001,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1044,7 +1018,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
